--- a/docs/excel/TMarquee.xlsx
+++ b/docs/excel/TMarquee.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28980" yWindow="330" windowWidth="26175" windowHeight="11235" tabRatio="204"/>
+    <workbookView xWindow="28980" yWindow="330" windowWidth="26175" windowHeight="11235" tabRatio="204" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TMarquee" sheetId="1" r:id="rId1"/>
+    <sheet name="Marquee" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TableName: "TMarquee" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +207,10 @@
   </si>
   <si>
     <t>Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "Marquee" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -660,16 +660,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -696,7 +696,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -767,7 +767,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TMarquee.xlsx
+++ b/docs/excel/TMarquee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28980" yWindow="330" windowWidth="26175" windowHeight="11235" tabRatio="204" activeTab="1"/>
+    <workbookView xWindow="28980" yWindow="330" windowWidth="26175" windowHeight="11235" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="Marquee" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -102,62 +102,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>恭喜【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>】在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>{1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>中获得冠军，获得奖励</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>{2}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>百人大战</t>
     </r>
     <r>
@@ -211,6 +155,131 @@
   </si>
   <si>
     <t>TableName: "Marquee" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恭喜【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中获得冠军，获得奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{2}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>恭喜【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手牌，成功赢得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{3}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -258,6 +327,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -291,7 +367,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,6 +381,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -643,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -663,13 +742,13 @@
         <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -699,7 +778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -710,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -724,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -738,6 +817,20 @@
         <v>0</v>
       </c>
       <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -754,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -767,7 +860,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TMarquee.xlsx
+++ b/docs/excel/TMarquee.xlsx
@@ -270,7 +270,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>手牌，成功赢得</t>
+      <t>，成功赢得</t>
     </r>
     <r>
       <rPr>
@@ -725,7 +725,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
